--- a/biology/Botanique/Ischnosiphon_arouma/Ischnosiphon_arouma.xlsx
+++ b/biology/Botanique/Ischnosiphon_arouma/Ischnosiphon_arouma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischnosiphon arouma est une espèce herbacée néotropicale appartenant à la famille des Marantaceae.
 Elle est bien connue en Amazonie et sur le plateau des Guyanes pour ses usages en vannerie traditionnelle.
-En Guyane, on l'appelle arouman, arouman rouge (créole, ulu (Wayãpi), wevgi (Palikur), arumã (Portugais), waruma (Kali'na), wama (Wayana)[3], Itiriti (Arawak)[4], weiman (Aluku)[5].
+En Guyane, on l'appelle arouman, arouman rouge (créole, ulu (Wayãpi), wevgi (Palikur), arumã (Portugais), waruma (Kali'na), wama (Wayana), Itiriti (Arawak), weiman (Aluku).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inflorescence d'Ischnosiphon arouma est caractéristique des Marantaceae. Il s'agit d'une panicule d‘inflorescences spiciformes, c'est-à-dire un racème composé d'inflorescences elles-mêmes racémeuses (drépaniums) d’inflorescences spiciformes, qui sont elles-mêmes des panicules de diades (ou racème de drépaniums de diades)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence d'Ischnosiphon arouma est caractéristique des Marantaceae. Il s'agit d'une panicule d‘inflorescences spiciformes, c'est-à-dire un racème composé d'inflorescences elles-mêmes racémeuses (drépaniums) d’inflorescences spiciformes, qui sont elles-mêmes des panicules de diades (ou racème de drépaniums de diades).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischnosiphon arouma croît préférentiellement en bouquet de quelques individus disséminés, dans les sous-bois forestiers, sur des sols bien drainés[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischnosiphon arouma croît préférentiellement en bouquet de quelques individus disséminés, dans les sous-bois forestiers, sur des sols bien drainés.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est bien connue pour son usage dans la vannerie traditionnelle[8]. Des études ont été menées sur la durabilité de l'exploitation de cette ressource naturelle[7],[9],[10],[11].
-Les Palikur l'emploient également dans des remèdes pour soigner les morsures de serpent et contre le bégaiement[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est bien connue pour son usage dans la vannerie traditionnelle. Des études ont été menées sur la durabilité de l'exploitation de cette ressource naturelle.
+Les Palikur l'emploient également dans des remèdes pour soigner les morsures de serpent et contre le bégaiement.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[12] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MARANTA (Arouma) caule inferne nudo.
 Bermudiana juncea, caule altiſſimo. Plum. MJf. 5. t. 23 &amp; 24. »
 « AROUMA des Caraïbes. Les Caraïbes ſe fervent auſſi des tiges fendues de cet arouma pour faire des pagaras. »
